--- a/data/financial_statements/soci/FCX.xlsx
+++ b/data/financial_statements/soci/FCX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -140,9 +260,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +312,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -497,1675 +611,1714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>5758000000</v>
+      </c>
+      <c r="C2">
         <v>5003000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5416000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6603000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6164000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6083000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5748000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4850000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4495000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3851000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3054000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2798000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3911000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3153000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3546000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3792000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3684000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4908000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5168000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4868000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5041000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4310000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3711000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3341000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4377000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3877000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3334000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3242000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3134000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3382000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3938000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4153000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3798000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5696000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5522000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4985000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5885000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>6165000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4288000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4583000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.0659</v>
+      </c>
+      <c r="C3">
         <v>-0.1775</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.0578</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3614</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3713</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5796</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.8821</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.7334000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1493</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2214</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1387</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.2621</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0616</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.3576</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.3139</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.221</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.2692</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1387</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.3926</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.457</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1517</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1117</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1131</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0305</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.3966</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1464</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.1534</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.2194</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.1748</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.4063</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.2869</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.1669</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.3546</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0761</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.2878</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0877</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.304</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.3957</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0418</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0048</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>4023000000</v>
+      </c>
+      <c r="C4">
         <v>3899000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3528000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3639000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3723000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3551000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3550000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3206000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3066000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2868000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2613000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3108000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3410000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3033000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3359000000</v>
-      </c>
-      <c r="P4">
-        <v>3323000000</v>
       </c>
       <c r="Q4">
         <v>3323000000</v>
       </c>
       <c r="R4">
+        <v>3323000000</v>
+      </c>
+      <c r="S4">
         <v>3527000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3357000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3259000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3261000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3212000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2930000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2577000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3296000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3411000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3879000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>6948000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>7129000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>7161000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>6170000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>6955000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>6291000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4405000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>4095000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3703000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3955000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4251000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3383000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3048000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1735000000</v>
+      </c>
+      <c r="C5">
         <v>1104000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1888000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2964000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2441000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2532000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2198000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1644000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1429000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>983000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>441000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-310000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>501000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>120000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>187000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>469000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>361000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1381000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1811000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1609000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1780000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1098000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>781000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>764000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1081000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>466000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-545000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-3706000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-3995000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-3779000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-2232000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-2802000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-2493000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1291000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1427000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1282000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1930000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1914000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>905000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1535000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>28000000</v>
+      </c>
+      <c r="C6">
         <v>38000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>25000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>24000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>19000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>14000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7000000</v>
-      </c>
-      <c r="I6">
-        <v>8000000</v>
       </c>
       <c r="J6">
         <v>8000000</v>
       </c>
       <c r="K6">
+        <v>8000000</v>
+      </c>
+      <c r="L6">
         <v>18000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>21000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>25000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>31000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>27000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>33000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>27000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>24000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>21000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>33000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>27000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>19000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>14000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>17000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>13000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>15000000</v>
-      </c>
-      <c r="AB6">
-        <v>18000000</v>
       </c>
       <c r="AC6">
         <v>18000000</v>
       </c>
       <c r="AD6">
+        <v>18000000</v>
+      </c>
+      <c r="AE6">
         <v>26000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>30000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>33000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>13000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>29000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>34000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>30000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>37000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>57000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>64000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>52000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>107000000</v>
+      </c>
+      <c r="C7">
         <v>98000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>100000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>115000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>102000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>87000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>97000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>72000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>91000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>110000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>89000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>101000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>92000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>112000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>81000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>101000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>109000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>131000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>115000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>104000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>107000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>151000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>189000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>110000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>160000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>138000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>134000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>122000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>148000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>154000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>123000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>158000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>164000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>135000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>200000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>158000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>186000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>113000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1530000000</v>
+      </c>
+      <c r="C8">
         <v>962000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1736000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2809000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2305000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2462000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2067000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1532000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1709000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>880000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>321000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-473000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>775000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-38000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>33000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>321000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>316000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1315000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1664000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1459000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1479000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>928000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>686000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>597000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>766000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>359000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>18000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-3872000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-4164000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-3964000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-2421000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-2963000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-3694000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1132000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1153000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1111000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1650000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1707000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>639000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1355000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>140000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>156000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>127000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>171000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>138000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>144000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>141000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>236000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>120000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>115000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>120000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>141000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>137000000</v>
+      </c>
+      <c r="C10">
         <v>140000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>156000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>127000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>171000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>138000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>148000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>145000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>236000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>120000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>115000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>127000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>219000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>123000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>132000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>146000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>509000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>143000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>142000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>151000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>168000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>304000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>162000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>167000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>181000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>187000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>196000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>191000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>172000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>157000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>142000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>146000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>123000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>158000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>164000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>161000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>167000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>162000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>132000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>57000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>6000000</v>
+      </c>
+      <c r="C11">
         <v>-95000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-137000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-96000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-332000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-102000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-139000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-134000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-240000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-157000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-104000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-139000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-409000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-111000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-127000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-138000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-497000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-129000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-113000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-123000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-154000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-302000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-173000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-159000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-274000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-182000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-132000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-155000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-173000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-198000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-106000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-139000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-130000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-77000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-167000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-128000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-183000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-159000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>9000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-105000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1536000000</v>
+      </c>
+      <c r="C12">
         <v>867000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1599000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2713000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1973000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2360000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1928000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1398000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1469000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>723000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>217000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-612000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>366000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-149000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-94000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>183000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-181000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1186000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1551000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1336000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1325000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>626000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>513000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>438000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>492000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>177000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-114000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-4027000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-4337000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-4162000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-2527000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-3102000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-3824000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1055000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>986000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>983000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1467000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1548000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>648000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1250000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>557000000</v>
+      </c>
+      <c r="C13">
         <v>315000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>571000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>824000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>625000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>628000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>603000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>443000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>611000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>297000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>96000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-60000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>329000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>91000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-15000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>105000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-552000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>522000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>515000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>506000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>136000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>387000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>186000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>174000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>292000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-114000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>116000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>77000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-208000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-349000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-699000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-695000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-809000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>349000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>328000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>357000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>508000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>499000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>40000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>428000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>979000000</v>
+      </c>
+      <c r="C14">
         <v>552000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1028000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1889000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1348000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1732000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1325000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>955000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>858000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>426000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>121000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-552000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>37000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-240000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-79000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>78000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>371000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>664000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1036000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>830000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1189000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>239000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>327000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>264000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>200000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>291000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-230000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-4104000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-4129000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-3813000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-1828000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-2407000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-3015000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>706000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>658000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>626000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>959000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1049000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>608000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>822000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>-2000000</v>
+      </c>
+      <c r="C15">
         <v>8000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>10000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>15000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-9000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-2000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6000000</v>
-      </c>
-      <c r="K15">
-        <v>3000000</v>
       </c>
       <c r="L15">
         <v>3000000</v>
       </c>
       <c r="M15">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="N15">
         <v>5000000</v>
@@ -2174,102 +2327,102 @@
         <v>5000000</v>
       </c>
       <c r="P15">
+        <v>5000000</v>
+      </c>
+      <c r="Q15">
         <v>-3000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-2000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-1000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>4000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2000000</v>
-      </c>
-      <c r="Z15">
-        <v>1000000</v>
       </c>
       <c r="AA15">
         <v>1000000</v>
       </c>
       <c r="AB15">
+        <v>1000000</v>
+      </c>
+      <c r="AC15">
         <v>7000000</v>
-      </c>
-      <c r="AC15">
-        <v>-2000000</v>
       </c>
       <c r="AD15">
         <v>-2000000</v>
       </c>
-      <c r="AF15">
+      <c r="AE15">
+        <v>-2000000</v>
+      </c>
+      <c r="AG15">
         <v>1000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>3000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-2000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-1000000</v>
-      </c>
-      <c r="AM15">
-        <v>2000000</v>
       </c>
       <c r="AN15">
         <v>2000000</v>
       </c>
+      <c r="AO15">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16">
         <v>3000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-192000000</v>
-      </c>
-      <c r="Z16">
-        <v>10000000</v>
       </c>
       <c r="AA16">
         <v>10000000</v>
       </c>
       <c r="AB16">
+        <v>10000000</v>
+      </c>
+      <c r="AC16">
         <v>11000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>10000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>11000000</v>
-      </c>
-      <c r="AE16">
-        <v>10000000</v>
       </c>
       <c r="AF16">
         <v>10000000</v>
@@ -2290,527 +2443,533 @@
         <v>10000000</v>
       </c>
       <c r="AL16">
+        <v>10000000</v>
+      </c>
+      <c r="AM16">
         <v>9000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>280000000</v>
+      </c>
+      <c r="C17">
         <v>156000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>198000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>377000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>252000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>324000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>248000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>235000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>150000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>103000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>71000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-58000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>34000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-27000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-2000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>45000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-107000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>108000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>166000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>125000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>168000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-35000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>67000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>78000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>100000000</v>
-      </c>
-      <c r="Z17">
-        <v>59000000</v>
       </c>
       <c r="AA17">
         <v>59000000</v>
       </c>
       <c r="AB17">
+        <v>59000000</v>
+      </c>
+      <c r="AC17">
         <v>72000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-23000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>29000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>42000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>58000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>107000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>142000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>168000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>106000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>242000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>218000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>125000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>176000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>697000000</v>
+      </c>
+      <c r="C18">
         <v>404000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>840000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1527000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1106000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1399000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1083000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>718000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>708000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>329000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>53000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-491000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>12000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-207000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-72000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>28000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>485000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>556000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>869000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>692000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1041000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>280000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>268000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>228000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>292000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>217000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-479000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-4184000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-4081000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-3830000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-1851000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-2474000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-2852000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>552000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>482000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>510000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>707000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>821000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>482000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>648000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>0.28</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.57</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.04</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.74</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.73</v>
-      </c>
-      <c r="H19">
-        <v>0.48</v>
       </c>
       <c r="I19">
         <v>0.48</v>
       </c>
       <c r="J19">
+        <v>0.48</v>
+      </c>
+      <c r="K19">
         <v>0.22</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.03</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-0.34</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-0.09</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-0.05</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.02</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.09</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.38</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.6</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.47</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.71</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.19</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.18</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.16</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.21</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.16</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-0.38</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-3.35</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-3.47</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-3.58</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-1.78</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-2.38</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-2.75</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.53</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.46</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.49</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.68</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.79</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.49</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.68</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>0.28</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.57</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.04</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.74</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.73</v>
-      </c>
-      <c r="H20">
-        <v>0.48</v>
       </c>
       <c r="I20">
         <v>0.48</v>
       </c>
       <c r="J20">
+        <v>0.48</v>
+      </c>
+      <c r="K20">
         <v>0.22</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.03</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.34</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-0.09</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-0.05</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.02</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.09</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.38</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.59</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.47</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.71</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.19</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.18</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.16</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.21</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.16</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-0.38</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-3.35</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-3.47</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-3.58</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-1.78</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-2.38</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-2.75</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.53</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.46</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.49</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.68</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.79</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.49</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.68</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>1431000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1447000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1455000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1466000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1469000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1467000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1462000000</v>
-      </c>
-      <c r="I21">
-        <v>1453000000</v>
       </c>
       <c r="J21">
         <v>1453000000</v>
@@ -2819,70 +2978,70 @@
         <v>1453000000</v>
       </c>
       <c r="L21">
+        <v>1453000000</v>
+      </c>
+      <c r="M21">
         <v>1452000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1451000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1452000000</v>
-      </c>
-      <c r="O21">
-        <v>1451000000</v>
       </c>
       <c r="P21">
         <v>1451000000</v>
       </c>
       <c r="Q21">
+        <v>1451000000</v>
+      </c>
+      <c r="R21">
         <v>1449000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1450000000</v>
-      </c>
-      <c r="S21">
-        <v>1449000000</v>
       </c>
       <c r="T21">
         <v>1449000000</v>
       </c>
       <c r="U21">
+        <v>1449000000</v>
+      </c>
+      <c r="V21">
         <v>1447000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1448000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1447000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1446000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1318000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1346000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1269000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>1251000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1082000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1071000000</v>
-      </c>
-      <c r="AE21">
-        <v>1040000000</v>
       </c>
       <c r="AF21">
         <v>1040000000</v>
       </c>
       <c r="AG21">
-        <v>1039000000</v>
+        <v>1040000000</v>
       </c>
       <c r="AH21">
         <v>1039000000</v>
@@ -2891,72 +3050,75 @@
         <v>1039000000</v>
       </c>
       <c r="AJ21">
+        <v>1039000000</v>
+      </c>
+      <c r="AK21">
         <v>1038000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1002000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1038000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>980000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>950000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1440000000</v>
+      </c>
+      <c r="C22">
         <v>1439000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1457000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1469000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1482000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1484000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1483000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1477000000</v>
-      </c>
-      <c r="I22">
-        <v>1461000000</v>
       </c>
       <c r="J22">
         <v>1461000000</v>
       </c>
       <c r="K22">
+        <v>1461000000</v>
+      </c>
+      <c r="L22">
         <v>1458000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1452000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1451000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1452000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1451000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1457000000</v>
-      </c>
-      <c r="Q22">
-        <v>1458000000</v>
       </c>
       <c r="R22">
         <v>1458000000</v>
@@ -2968,1761 +3130,1788 @@
         <v>1458000000</v>
       </c>
       <c r="U22">
-        <v>1454000000</v>
+        <v>1458000000</v>
       </c>
       <c r="V22">
         <v>1454000000</v>
       </c>
       <c r="W22">
+        <v>1454000000</v>
+      </c>
+      <c r="X22">
         <v>1453000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1454000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1318000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1351000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1269000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1251000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1082000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1071000000</v>
-      </c>
-      <c r="AE22">
-        <v>1040000000</v>
       </c>
       <c r="AF22">
         <v>1040000000</v>
       </c>
       <c r="AG22">
+        <v>1040000000</v>
+      </c>
+      <c r="AH22">
         <v>1039000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1046000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1045000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1044000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1006000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1043000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>984000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>953000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.3013</v>
+      </c>
+      <c r="C23">
         <v>0.2207</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3486</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.4489</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.396</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.4162</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.3824</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.339</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.3179</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2553</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1444</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-0.1108</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1281</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.0381</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.0527</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1237</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.098</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.2814</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.3504</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.3305</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.3531</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.2548</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.2105</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.2287</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.247</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1202</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-0.1635</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-1.1431</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-1.2747</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-1.1174</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-0.5668</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-0.6747</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-0.6564</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.2267</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.2584</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.2572</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.328</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.3105</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.2111</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.3349</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.2657</v>
+      </c>
+      <c r="C24">
         <v>0.1923</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.3205</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.4254</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.3739</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.4047</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.3596</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.3159</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.3802</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.2285</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.1051</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-0.169</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.1982</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-0.0121</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.009299999999999999</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.0847</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.0858</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.2679</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.322</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.2997</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.2934</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.2153</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1849</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1787</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.175</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.0926</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.0054</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-1.1943</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-1.3287</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-1.1721</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-0.6148</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-0.7135</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-0.9726</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1987</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.2088</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.2229</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.2804</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.2769</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.149</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.2957</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.2668</v>
+      </c>
+      <c r="C25">
         <v>0.1733</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.2952</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.4109</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.3201</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.388</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.3354</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.2882</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.3268</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.1877</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.0711</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.2187</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.0936</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-0.0473</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-0.0265</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.0483</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-0.0491</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.2416</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.3001</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.2744</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.2628</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.1452</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.1382</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.1311</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.1124</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.0457</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-0.0342</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-1.2421</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-1.3839</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-1.2306</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-0.6417</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-0.7469</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-1.0068</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.1852</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.1786</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.1972</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.2493</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.2511</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.1511</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.2727</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>0.121</v>
+      </c>
+      <c r="C26">
         <v>0.0808</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.1551</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.2313</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.1794</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.23</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.1884</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.148</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.1575</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.0854</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.0174</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-0.1755</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.0031</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-0.06569999999999999</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-0.0203</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.0074</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.1317</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.1133</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.1682</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.1422</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.2065</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.065</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0722</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.0682</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.0667</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.056</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-0.1437</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-1.2906</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-1.3022</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-1.1325</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-0.47</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-0.5957</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-0.7509</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.0969</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.0873</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.1023</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.1201</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.1332</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.1124</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.1414</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>1470000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2243000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3298000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2873000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2990000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2550000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1951000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2144000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1274000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>679000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-132000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1166000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>284000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>385000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>668000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>719000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1773000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2106000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1910000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1936000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1346000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1136000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>986000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1359000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1002000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>670000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-3150000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-3384000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-3076000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-1531000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-2024000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-2755000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2077000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>2166000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2077000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>2669000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2626000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1169000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1684000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1530000000</v>
+      </c>
+      <c r="C28">
         <v>962000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1736000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2809000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2305000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2462000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2067000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1532000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1709000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>880000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>321000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-473000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>775000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-38000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>33000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>321000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>316000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1315000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1664000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1459000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1479000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>928000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>686000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>597000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>766000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>359000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>18000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-3872000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-4164000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-3964000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-2421000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-2963000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-3694000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1132000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1153000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1111000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1650000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1707000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>639000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1355000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>977000000</v>
+      </c>
+      <c r="C29">
         <v>560000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1038000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1904000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1358000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1723000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1331000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>953000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>858000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>432000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>124000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-549000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>42000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-235000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-74000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>75000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>374000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>668000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1039000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>828000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1193000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>242000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>326000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>268000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>202000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>292000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-229000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-4097000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-4131000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-3815000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-1828000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-2406000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-3012000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>704000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>660000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>626000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>959000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1048000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>610000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>824000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30">
-        <v>1000000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="N30">
         <v>1000000</v>
       </c>
-      <c r="P30">
+      <c r="O30">
         <v>1000000</v>
       </c>
       <c r="Q30">
+        <v>1000000</v>
+      </c>
+      <c r="R30">
         <v>4000000</v>
-      </c>
-      <c r="R30">
-        <v>-4000000</v>
       </c>
       <c r="S30">
         <v>-4000000</v>
       </c>
       <c r="T30">
+        <v>-4000000</v>
+      </c>
+      <c r="U30">
         <v>-11000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>16000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>9000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>38000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-2000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-6000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-181000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-4000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>37000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>25000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>29000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>977000000</v>
+      </c>
+      <c r="C31">
         <v>560000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1038000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1904000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1358000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1723000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1331000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>953000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>858000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>432000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>124000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-549000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>43000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-234000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-74000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>76000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>378000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>664000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1035000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>817000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1209000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>245000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>335000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>306000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>200000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>286000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-410000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-4101000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-4094000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-3790000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-1799000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-2406000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-2735000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>704000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>660000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>626000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>959000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1048000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>610000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>824000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>0.3913</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.7173</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.3086</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.198</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.1729</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.9073</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.6518</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.4054</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.2973</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.0853</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-0.3781</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.01</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-0.15</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-0.05</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.02</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.34</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.38</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.6</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.48</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.71</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.19</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.18</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.13</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.43</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.18</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-0.23</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-3.34</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-3.6365</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-3.59</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-1.78</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-2.3135</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-3.2859</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.6776</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.6352</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.6031</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.9347</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1.0096</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.6224</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.8673999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0.6785</v>
+      </c>
+      <c r="C33">
         <v>0.3892</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.7124</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1.2961</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.1962</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1.1611</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.8975</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.6452</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.4074</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.2957</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.08500000000000001</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-0.3781</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.01</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-0.15</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-0.05</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.02</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.34</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.38</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.59</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.48</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.71</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.19</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.18</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.13</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.43</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.18</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-0.23</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-3.34</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-3.6365</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-3.59</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-1.78</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-2.3135</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-3.2742</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.673</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.6316000000000001</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.5996</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.9311</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1.0048</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.6199</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.8646</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34">
-        <v>0.0007</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="N34">
         <v>0.0007</v>
       </c>
-      <c r="P34">
+      <c r="O34">
         <v>0.0007</v>
       </c>
       <c r="Q34">
+        <v>0.0007</v>
+      </c>
+      <c r="R34">
         <v>0.0055</v>
-      </c>
-      <c r="R34">
-        <v>-0.0027</v>
       </c>
       <c r="S34">
         <v>-0.0027</v>
       </c>
       <c r="T34">
+        <v>-0.0027</v>
+      </c>
+      <c r="U34">
         <v>-0.01</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0017</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0021</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0062</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.03</v>
-      </c>
-      <c r="Y34">
-        <v>-0.02</v>
       </c>
       <c r="Z34">
         <v>-0.02</v>
       </c>
       <c r="AA34">
+        <v>-0.02</v>
+      </c>
+      <c r="AB34">
         <v>-0.15</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-0.01</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-0.0279</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.01</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.0279</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35">
-        <v>0.0007</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="N35">
         <v>0.0007</v>
       </c>
-      <c r="P35">
+      <c r="O35">
         <v>0.0007</v>
       </c>
       <c r="Q35">
+        <v>0.0007</v>
+      </c>
+      <c r="R35">
         <v>0.0055</v>
-      </c>
-      <c r="R35">
-        <v>-0.0028</v>
       </c>
       <c r="S35">
         <v>-0.0028</v>
       </c>
       <c r="T35">
+        <v>-0.0028</v>
+      </c>
+      <c r="U35">
         <v>-0.01</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0017</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0021</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.0062</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.03</v>
-      </c>
-      <c r="Y35">
-        <v>-0.02</v>
       </c>
       <c r="Z35">
         <v>-0.02</v>
       </c>
       <c r="AA35">
+        <v>-0.02</v>
+      </c>
+      <c r="AB35">
         <v>-0.15</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>-0.01</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-0.0279</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.01</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.0279</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>0.3913</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.7173</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.3086</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.9276</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.1729</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.9073</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.6518</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.5908</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.2973</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.0853</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-0.3781</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.0295</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-0.1612</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-0.051</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.0524</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.2612</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.4579</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.7143</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.5638</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.8355</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.1692</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.2315</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>0.2116</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.3349</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.2125</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-0.3231</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>-3.2782</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>-3.5908</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-3.5387</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-1.7298</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-2.3135</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>-2.6329</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>0.6776</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>0.6352</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>0.6031</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>0.9347</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1.0096</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.6224</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.8673999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>0.6785</v>
+      </c>
+      <c r="C37">
         <v>0.3892</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.7124</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.2961</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.9163</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.1611</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.8975</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.6452</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.5894</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.2957</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.08500000000000001</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-0.3781</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.0297</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>-0.1612</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-0.051</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.0522</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.2593</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.4554</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.7099</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.5604</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.8313</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.1685</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.2306</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.2105</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.3357</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.2117</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>-0.3231</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>-3.2782</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>-3.5908</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>-3.5387</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>-1.7298</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>-2.3135</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>-2.6213</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.673</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.6316000000000001</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.5996</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.9311</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>1.0048</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.6199</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.8646</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
         <v>1439000000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1457000000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1469000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1482000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1484000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1483000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1477000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1469000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1461000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1458000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1452000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>1457000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>1452000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>1451000000</v>
-      </c>
-      <c r="P38">
-        <v>1457000000</v>
       </c>
       <c r="Q38">
         <v>1457000000</v>
       </c>
       <c r="R38">
-        <v>1458000000</v>
+        <v>1457000000</v>
       </c>
       <c r="S38">
         <v>1458000000</v>
@@ -4731,307 +4920,316 @@
         <v>1458000000</v>
       </c>
       <c r="U38">
+        <v>1458000000</v>
+      </c>
+      <c r="V38">
         <v>1455000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>1454000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>1453000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>1454000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>1410000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>1351000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>1269000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>1251000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>1177000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>1071000000</v>
-      </c>
-      <c r="AE38">
-        <v>1040000000</v>
       </c>
       <c r="AF38">
         <v>1040000000</v>
       </c>
       <c r="AG38">
+        <v>1040000000</v>
+      </c>
+      <c r="AH38">
         <v>1039000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>1046000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>1045000000</v>
-      </c>
-      <c r="AJ38">
-        <v>1044000000</v>
       </c>
       <c r="AK38">
         <v>1044000000</v>
       </c>
       <c r="AL38">
+        <v>1044000000</v>
+      </c>
+      <c r="AM38">
         <v>1043000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>984000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>953000000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>0.2938</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.4141</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.4995</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.4661</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.4915</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.4436</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.4023</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.477</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.3308</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.2223</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-0.0472</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.2981</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.0901</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.1086</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.1762</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.1952</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.3612</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.4075</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.3924</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.3841</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.3123</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.3061</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>0.2951</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.3105</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.2584</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>0.201</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>-0.9716</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>-1.0798</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>-0.9095</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>-0.3888</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>-0.4874</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>-0.7254</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.3646</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.3922</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.4166</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.4535</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.426</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>0.2726</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0.3674</v>
       </c>
     </row>
-    <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+    <row r="40" spans="1:41">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B40">
+        <v>0.1857</v>
+      </c>
+      <c r="C40">
         <v>0.1515</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.2993</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.2561</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.3699</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.323</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.4167</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.2216</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.2952</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.3212</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.1608</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-0.0136</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.0435</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>0.07099999999999999</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.1562</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>0.1408</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>-0.0168</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>0.2541</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>0.2533</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>0.2812</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.3281</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.2745</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.2794</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>0.2371</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>0.2611</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>0.2528</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>0.2621</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>0.2283</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>0.1953</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>0.2431</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>0.2715</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>0.1726</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>0.2944</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>0.3381</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>0.251</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>0.2409</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <v>0.4071</v>
       </c>
-      <c r="AL40">
+      <c r="AM40">
         <v>0.3046</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>0.2411</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>0.1813</v>
       </c>
     </row>
